--- a/Excel/HeroLevelExpConfig.xlsx
+++ b/Excel/HeroLevelExpConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E21854-6AD5-4C19-BD42-80BDAFFE6B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0E1AA-6FDD-4F05-A15E-477D709DDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="3340" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelExp" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>c</t>
   </si>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>EXP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的阶数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedRank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -551,7 +562,9 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -578,7 +591,9 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -605,7 +620,9 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -633,7 +650,9 @@
       <c r="D6" s="14">
         <v>50</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -655,7 +674,9 @@
       <c r="D7" s="14">
         <v>60</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -682,7 +703,9 @@
       <c r="D8" s="14">
         <v>70</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -708,7 +731,9 @@
       <c r="D9" s="14">
         <v>80</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -734,7 +759,9 @@
       <c r="D10" s="14">
         <v>90</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -760,7 +787,9 @@
       <c r="D11" s="14">
         <v>100</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -786,7 +815,9 @@
       <c r="D12" s="14">
         <v>120</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -813,7 +844,9 @@
       <c r="D13" s="14">
         <v>140</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -840,7 +873,9 @@
       <c r="D14" s="14">
         <v>160</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -867,7 +902,9 @@
       <c r="D15" s="14">
         <v>180</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -894,7 +931,9 @@
       <c r="D16" s="14">
         <v>200</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -921,7 +960,9 @@
       <c r="D17" s="14">
         <v>220</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -948,7 +989,9 @@
       <c r="D18" s="14">
         <v>240</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -971,7 +1014,9 @@
       <c r="D19" s="14">
         <v>260</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -994,7 +1039,9 @@
       <c r="D20" s="14">
         <v>280</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1017,7 +1064,9 @@
       <c r="D21" s="14">
         <v>300</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1040,7 +1089,9 @@
       <c r="D22" s="14">
         <v>320</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1063,7 +1114,9 @@
       <c r="D23" s="14">
         <v>340</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1080,7 +1133,9 @@
       <c r="D24" s="14">
         <v>360</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1096,7 +1151,9 @@
       <c r="D25" s="14">
         <v>380</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1112,7 +1169,9 @@
       <c r="D26" s="14">
         <v>400</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1128,7 +1187,9 @@
       <c r="D27" s="14">
         <v>450</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1144,7 +1205,9 @@
       <c r="D28" s="14">
         <v>500</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1160,7 +1223,9 @@
       <c r="D29" s="14">
         <v>550</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1176,7 +1241,9 @@
       <c r="D30" s="14">
         <v>600</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="3:23" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C31" s="14">
@@ -1185,7 +1252,9 @@
       <c r="D31" s="14">
         <v>650</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="3:23" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C32" s="14">
@@ -1194,589 +1263,810 @@
       <c r="D32" s="14">
         <v>700</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C33" s="14">
         <v>28</v>
       </c>
       <c r="D33" s="14">
         <v>750</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C34" s="14">
         <v>29</v>
       </c>
       <c r="D34" s="14">
         <v>800</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C35" s="15">
         <v>30</v>
       </c>
       <c r="D35" s="15">
         <v>850</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C36" s="14">
         <v>31</v>
       </c>
       <c r="D36" s="14">
         <v>900</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C37" s="14">
         <v>32</v>
       </c>
       <c r="D37" s="14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C38" s="14">
         <v>33</v>
       </c>
       <c r="D38" s="14">
         <v>1100</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C39" s="14">
         <v>34</v>
       </c>
       <c r="D39" s="14">
         <v>1200</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C40" s="14">
         <v>35</v>
       </c>
       <c r="D40" s="14">
         <v>1300</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C41" s="14">
         <v>36</v>
       </c>
       <c r="D41" s="14">
         <v>1400</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C42" s="14">
         <v>37</v>
       </c>
       <c r="D42" s="14">
         <v>1500</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C43" s="14">
         <v>38</v>
       </c>
       <c r="D43" s="14">
         <v>1600</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C44" s="14">
         <v>39</v>
       </c>
       <c r="D44" s="14">
         <v>1700</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C45" s="14">
         <v>40</v>
       </c>
       <c r="D45" s="14">
         <v>1800</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C46" s="14">
         <v>41</v>
       </c>
       <c r="D46" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E46" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C47" s="14">
         <v>42</v>
       </c>
       <c r="D47" s="14">
         <v>2200</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E47" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C48" s="14">
         <v>43</v>
       </c>
       <c r="D48" s="14">
         <v>2400</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E48" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C49" s="14">
         <v>44</v>
       </c>
       <c r="D49" s="14">
         <v>2600</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E49" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C50" s="14">
         <v>45</v>
       </c>
       <c r="D50" s="14">
         <v>2800</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E50" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C51" s="14">
         <v>46</v>
       </c>
       <c r="D51" s="14">
         <v>3000</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E51" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C52" s="14">
         <v>47</v>
       </c>
       <c r="D52" s="14">
         <v>3200</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E52" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C53" s="14">
         <v>48</v>
       </c>
       <c r="D53" s="14">
         <v>3400</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E53" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C54" s="14">
         <v>49</v>
       </c>
       <c r="D54" s="14">
         <v>3600</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E54" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C55" s="15">
         <v>50</v>
       </c>
       <c r="D55" s="15">
         <v>3800</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E55" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C56" s="14">
         <v>51</v>
       </c>
       <c r="D56" s="14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E56" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C57" s="14">
         <v>52</v>
       </c>
       <c r="D57" s="14">
         <v>4500</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E57" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C58" s="14">
         <v>53</v>
       </c>
       <c r="D58" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E58" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C59" s="14">
         <v>54</v>
       </c>
       <c r="D59" s="14">
         <v>5500</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E59" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C60" s="14">
         <v>55</v>
       </c>
       <c r="D60" s="14">
         <v>6000</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E60" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C61" s="14">
         <v>56</v>
       </c>
       <c r="D61" s="14">
         <v>6500</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E61" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C62" s="14">
         <v>57</v>
       </c>
       <c r="D62" s="14">
         <v>7000</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E62" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C63" s="14">
         <v>58</v>
       </c>
       <c r="D63" s="14">
         <v>7500</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E63" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C64" s="14">
         <v>59</v>
       </c>
       <c r="D64" s="14">
         <v>8000</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E64" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C65" s="15">
         <v>60</v>
       </c>
       <c r="D65" s="15">
         <v>8500</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E65" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C66" s="14">
         <v>61</v>
       </c>
       <c r="D66" s="14">
         <v>9000</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E66" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C67" s="14">
         <v>62</v>
       </c>
       <c r="D67" s="14">
         <v>9500</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E67" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C68" s="14">
         <v>63</v>
       </c>
       <c r="D68" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E68" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C69" s="14">
         <v>64</v>
       </c>
       <c r="D69" s="14">
         <v>10500</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E69" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C70" s="14">
         <v>65</v>
       </c>
       <c r="D70" s="14">
         <v>11000</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E70" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C71" s="14">
         <v>66</v>
       </c>
       <c r="D71" s="14">
         <v>11500</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E71" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C72" s="14">
         <v>67</v>
       </c>
       <c r="D72" s="14">
         <v>12000</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E72" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C73" s="14">
         <v>68</v>
       </c>
       <c r="D73" s="14">
         <v>12500</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E73" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C74" s="15">
         <v>69</v>
       </c>
       <c r="D74" s="15">
         <v>13000</v>
       </c>
-    </row>
-    <row r="75" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E74" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C75" s="14">
         <v>70</v>
       </c>
       <c r="D75" s="14">
         <v>13500</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E75" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C76" s="14">
         <v>71</v>
       </c>
       <c r="D76" s="14">
         <v>14000</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E76" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C77" s="14">
         <v>72</v>
       </c>
       <c r="D77" s="14">
         <v>15000</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E77" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C78" s="14">
         <v>73</v>
       </c>
       <c r="D78" s="14">
         <v>16000</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E78" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C79" s="14">
         <v>74</v>
       </c>
       <c r="D79" s="14">
         <v>17000</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E79" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C80" s="14">
         <v>75</v>
       </c>
       <c r="D80" s="14">
         <v>18000</v>
       </c>
-    </row>
-    <row r="81" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E80" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C81" s="15">
         <v>76</v>
       </c>
       <c r="D81" s="15">
         <v>19000</v>
       </c>
-    </row>
-    <row r="82" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E81" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C82" s="14">
         <v>77</v>
       </c>
       <c r="D82" s="14">
         <v>20000</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E82" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C83" s="14">
         <v>78</v>
       </c>
       <c r="D83" s="14">
         <v>21000</v>
       </c>
-    </row>
-    <row r="84" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E83" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C84" s="14">
         <v>79</v>
       </c>
       <c r="D84" s="14">
         <v>22000</v>
       </c>
-    </row>
-    <row r="85" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E84" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C85" s="14">
         <v>80</v>
       </c>
       <c r="D85" s="14">
         <v>23000</v>
       </c>
-    </row>
-    <row r="86" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E85" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C86" s="14">
         <v>81</v>
       </c>
       <c r="D86" s="14">
         <v>24000</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E86" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C87" s="14">
         <v>82</v>
       </c>
       <c r="D87" s="14">
         <v>25000</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E87" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C88" s="14">
         <v>83</v>
       </c>
       <c r="D88" s="14">
         <v>27000</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E88" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C89" s="14">
         <v>84</v>
       </c>
       <c r="D89" s="14">
         <v>30000</v>
       </c>
-    </row>
-    <row r="90" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E89" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C90" s="14">
         <v>85</v>
       </c>
       <c r="D90" s="14">
         <v>35000</v>
       </c>
-    </row>
-    <row r="91" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E90" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C91" s="15">
         <v>86</v>
       </c>
       <c r="D91" s="15">
         <v>40000</v>
       </c>
-    </row>
-    <row r="92" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E91" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C92" s="14">
         <v>87</v>
       </c>
       <c r="D92" s="14">
         <v>45000</v>
       </c>
-    </row>
-    <row r="93" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E92" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C93" s="14">
         <v>88</v>
       </c>
       <c r="D93" s="14">
         <v>50000</v>
       </c>
-    </row>
-    <row r="94" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E93" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C94" s="14">
         <v>89</v>
       </c>
       <c r="D94" s="14">
         <v>55000</v>
       </c>
-    </row>
-    <row r="95" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E94" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C95" s="14">
         <v>90</v>
       </c>
       <c r="D95" s="14">
         <v>60000</v>
       </c>
-    </row>
-    <row r="96" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E95" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C96" s="14">
         <v>91</v>
       </c>
       <c r="D96" s="14">
         <v>65000</v>
       </c>
-    </row>
-    <row r="97" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E96" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C97" s="14">
         <v>92</v>
       </c>
       <c r="D97" s="14">
         <v>70000</v>
       </c>
-    </row>
-    <row r="98" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E97" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C98" s="14">
         <v>93</v>
       </c>
       <c r="D98" s="14">
         <v>75000</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E98" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C99" s="15">
         <v>94</v>
       </c>
       <c r="D99" s="15">
         <v>80000</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E99" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C100" s="14">
         <v>95</v>
       </c>
       <c r="D100" s="14">
         <v>85000</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E100" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C101" s="14">
         <v>96</v>
       </c>
       <c r="D101" s="14">
         <v>90000</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E101" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C102" s="14">
         <v>97</v>
       </c>
       <c r="D102" s="14">
         <v>95000</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E102" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C103" s="14">
         <v>98</v>
       </c>
       <c r="D103" s="14">
         <v>100000</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E103" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C104" s="15">
         <v>99</v>
       </c>
       <c r="D104" s="15">
         <v>105000</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="E104" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" ht="14.5" x14ac:dyDescent="0.4">
       <c r="C105" s="14">
         <v>100</v>
       </c>
       <c r="D105" s="14"/>
+      <c r="E105" s="16">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/HeroLevelExpConfig.xlsx
+++ b/Excel/HeroLevelExpConfig.xlsx
@@ -69,12 +69,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +96,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -116,30 +109,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,8 +132,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -169,17 +162,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,14 +203,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,24 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,25 +309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +339,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,49 +405,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,36 +442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +484,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +499,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,48 +561,31 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,121 +597,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,20 +730,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="19" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="19" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -759,7 +752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A2:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2865,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="13.2" spans="3:9">
